--- a/四组/第四组项目开发.xlsx
+++ b/四组/第四组项目开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="17250" windowHeight="7290" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="17250" windowHeight="7290" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="项目成员" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
   <si>
     <t>周日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,6 +410,45 @@
   <si>
     <t>部分同学
 的GIT不好用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成前台部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成前台部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">针对于今天的项目进行分配
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计了项目完成情况，规划明天
+项目进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传下载仍有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">几乎完成前台页面开发。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成部分页面整合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,26 +607,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,7 +925,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -896,6 +935,7 @@
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -987,7 +1027,9 @@
       <c r="F8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1004,7 +1046,9 @@
         <v>78</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1023,7 +1067,9 @@
       <c r="F10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1040,7 +1086,9 @@
         <v>74</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1057,7 +1105,9 @@
         <v>74</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1076,7 +1126,9 @@
       <c r="F13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1095,7 +1147,9 @@
       <c r="F14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1112,7 +1166,9 @@
         <v>76</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1129,7 +1185,9 @@
         <v>79</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1146,7 +1204,9 @@
         <v>79</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1163,7 +1223,9 @@
         <v>79</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1230,8 +1292,12 @@
       <c r="D21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1253,8 +1319,12 @@
       <c r="D22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1276,8 +1346,12 @@
       <c r="D23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1299,8 +1373,12 @@
       <c r="D24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1322,8 +1400,12 @@
       <c r="D25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1380,7 +1462,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1405,33 +1487,39 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="26.25" customHeight="1">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>93</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" ht="39" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="2" t="s">
@@ -1491,13 +1579,14 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="71.875" customWidth="1"/>
     <col min="4" max="4" width="55.5" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1522,22 +1611,26 @@
       <c r="C2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="27">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="1" t="s">
@@ -1599,7 +1692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1673,7 +1766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>

--- a/四组/第四组项目开发.xlsx
+++ b/四组/第四组项目开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="17250" windowHeight="7290" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="17250" windowHeight="7290" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目成员" sheetId="1" r:id="rId1"/>
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1766,7 +1766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>

--- a/四组/第四组项目开发.xlsx
+++ b/四组/第四组项目开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="17250" windowHeight="7290" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="17250" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="项目成员" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="118">
   <si>
     <t>周日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,16 +439,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上传下载仍有问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">几乎完成前台页面开发。
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>未完成部分页面整合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册后台完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结了前台遗留问题，分配
+后台任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结了一天的工作内容，针对于
+后台编写进行讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传下载仍有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台编写进度缓慢，上传下载仍有问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台页面校验完成，页面整合成功，开启后台开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台开发进度缓慢，
+部分功能无法实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台页面跳转</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -609,6 +655,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -924,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -936,6 +985,7 @@
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1030,7 +1080,9 @@
       <c r="G8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1049,7 +1101,9 @@
       <c r="G9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1070,7 +1124,9 @@
       <c r="G10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1108,7 +1164,9 @@
       <c r="G12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1129,7 +1187,9 @@
       <c r="G13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1150,7 +1210,9 @@
       <c r="G14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1169,7 +1231,9 @@
       <c r="G15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1188,7 +1252,9 @@
       <c r="G16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1207,7 +1273,9 @@
       <c r="G17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1226,7 +1294,9 @@
       <c r="G18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1298,8 +1368,12 @@
       <c r="F21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="9">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.40277777777777773</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1325,8 +1399,12 @@
       <c r="F22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="9">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.3125</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1352,8 +1430,12 @@
       <c r="F23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="9">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.40277777777777773</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1379,8 +1461,12 @@
       <c r="F24" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="9">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.40277777777777773</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1406,8 +1492,12 @@
       <c r="F25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="9">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0.40277777777777773</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1461,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1487,25 +1577,25 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1" ht="26.25" customHeight="1">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="39" customHeight="1">
       <c r="B4" s="2" t="s">
@@ -1518,16 +1608,22 @@
         <v>103</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="58.5" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="2" t="s">
@@ -1579,7 +1675,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1626,21 +1722,25 @@
         <v>37</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:5" ht="50.25" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" s="1" t="s">
@@ -1767,10 +1867,14 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -1796,8 +1900,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>

--- a/四组/第四组项目开发.xlsx
+++ b/四组/第四组项目开发.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="134">
   <si>
     <t>周日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -495,6 +495,70 @@
   </si>
   <si>
     <t>前台页面跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录后台完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台完成</t>
+  </si>
+  <si>
+    <t>后台完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配后台任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结一天的编写内容，了解
+各个成员的编写情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在项目合并问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台部分完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在项目整合问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写用户验证注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称，密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试注册的用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,7 +1038,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -986,6 +1050,7 @@
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
     <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1083,7 +1148,9 @@
       <c r="H8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1104,7 +1171,9 @@
       <c r="H9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1127,7 +1196,9 @@
       <c r="H10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1190,7 +1261,9 @@
       <c r="H13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1213,7 +1286,9 @@
       <c r="H14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1234,7 +1309,9 @@
       <c r="H15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1255,7 +1332,9 @@
       <c r="H16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1276,7 +1355,9 @@
       <c r="H17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1297,7 +1378,9 @@
       <c r="H18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1374,8 +1457,12 @@
       <c r="H21" s="9">
         <v>0.40277777777777773</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="I21" s="9">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0.40277777777777773</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1405,8 +1492,12 @@
       <c r="H22" s="9">
         <v>0.3125</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="I22" s="9">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0.3125</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1436,8 +1527,12 @@
       <c r="H23" s="9">
         <v>0.40277777777777773</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="I23" s="9">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0.40277777777777773</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1467,8 +1562,12 @@
       <c r="H24" s="9">
         <v>0.40277777777777773</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="I24" s="9">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0.40277777777777773</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1498,8 +1597,12 @@
       <c r="H25" s="9">
         <v>0.40277777777777773</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="I25" s="9">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0.40277777777777773</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1552,7 +1655,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1625,13 +1728,19 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="42.75" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="2" t="s">
@@ -1675,7 +1784,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1749,8 +1858,12 @@
       <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="1" t="s">
@@ -1867,13 +1980,14 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1913,21 +2027,43 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
